--- a/inst/extdata/example_data/with_unstained_results/brightness_220309_SymphonyA3.xlsx
+++ b/inst/extdata/example_data/with_unstained_results/brightness_220309_SymphonyA3.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,125 +365,120 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Pos plaat</t>
+          <t>Antibody name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Antibody name</t>
+          <t>Fluorochrome</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Fluorochrome</t>
+          <t>Laser wavelength</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Laser wavelength</t>
+          <t>Em Channel</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Em Channel</t>
+          <t>species recognition</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>species recognition</t>
+          <t>Brand</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Brand</t>
+          <t>Clone</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Clone</t>
+          <t>File</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>File</t>
+          <t>Laser</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Laser</t>
+          <t>Detector</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Detector</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>BrightnessLevel</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>BrightnessLevel</t>
+          <t>Group</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Group</t>
+          <t>Cutoff</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Cutoff</t>
+          <t>MFI_pos</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>MFI_pos</t>
+          <t>MFI_neg</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>MFI_neg</t>
+          <t>Min_neg</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Min_neg</t>
+          <t>Max_neg</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Max_neg</t>
+          <t>rSD</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>rSD</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>Voltage</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Voltage</t>
+          <t>Pos_count</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Pos_count</t>
+          <t>Neg_count</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Neg_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Pctg_OutOfRange</t>
         </is>
@@ -497,101 +492,96 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>CD4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CD4</t>
+          <t>BUV395</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>395</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>BD</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SK3</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>D:/Git_repos/CytoBright/inst/extdata/example_data/with_unstained/UV laser_BUV395.fcs</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>UV</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>UV379-A</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>BUV395</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>355</t>
-        </is>
-      </c>
-      <c r="F2">
-        <v>395</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>BD</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SK3</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>D:/Git_repos/CytoBright/inst/extdata/example_data/with_unstained/UV laser_BUV395.fcs</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>UV</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>UV379-A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>BUV395</t>
         </is>
       </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>BUV395</t>
-        </is>
+      <c r="O2">
+        <v>93.3071903991702</v>
       </c>
       <c r="P2">
-        <v>93.3071903991702</v>
+        <v>3104.176025390625</v>
       </c>
       <c r="Q2">
-        <v>3104.176025390625</v>
+        <v>16.35899353027344</v>
       </c>
       <c r="R2">
-        <v>16.35899353027344</v>
+        <v>-14.33462333679199</v>
       </c>
       <c r="S2">
-        <v>-14.33462333679199</v>
+        <v>60.23495903015133</v>
       </c>
       <c r="T2">
-        <v>60.23495903015133</v>
+        <v>22.66552655530192</v>
       </c>
       <c r="U2">
-        <v>22.66552655530192</v>
+        <v>68.11703721787238</v>
       </c>
       <c r="V2">
-        <v>68.11703721787238</v>
+        <v>485</v>
       </c>
       <c r="W2">
-        <v>485</v>
+        <v>3355</v>
       </c>
       <c r="X2">
-        <v>3355</v>
+        <v>7239</v>
       </c>
       <c r="Y2">
-        <v>7239</v>
-      </c>
-      <c r="Z2">
         <v>0</v>
       </c>
     </row>
@@ -603,101 +593,96 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>CD4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CD4</t>
+          <t>BV421</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="E3">
+        <v>421</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>BD</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SK3</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>D:/Git_repos/CytoBright/inst/extdata/example_data/with_unstained/V laser_BV421.fcs</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>V431-A</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>BV421</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>405</t>
-        </is>
-      </c>
-      <c r="F3">
-        <v>421</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>BD</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SK3</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>D:/Git_repos/CytoBright/inst/extdata/example_data/with_unstained/V laser_BV421.fcs</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>V431-A</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>BV421</t>
         </is>
       </c>
-      <c r="N3">
-        <v>4</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>BV421</t>
-        </is>
+      <c r="O3">
+        <v>172.4371206665041</v>
       </c>
       <c r="P3">
-        <v>172.4371206665041</v>
+        <v>21492.51171875</v>
       </c>
       <c r="Q3">
-        <v>21492.51171875</v>
+        <v>61.98802185058594</v>
       </c>
       <c r="R3">
-        <v>61.98802185058594</v>
+        <v>20.2722448348999</v>
       </c>
       <c r="S3">
-        <v>20.2722448348999</v>
+        <v>148.3203430175781</v>
       </c>
       <c r="T3">
-        <v>148.3203430175781</v>
+        <v>38.92039458440068</v>
       </c>
       <c r="U3">
-        <v>38.92039458440068</v>
+        <v>275.3122614215322</v>
       </c>
       <c r="V3">
-        <v>275.3122614215322</v>
+        <v>402</v>
       </c>
       <c r="W3">
-        <v>402</v>
+        <v>3825</v>
       </c>
       <c r="X3">
-        <v>3825</v>
+        <v>5902</v>
       </c>
       <c r="Y3">
-        <v>5902</v>
-      </c>
-      <c r="Z3">
         <v>0</v>
       </c>
     </row>
@@ -709,101 +694,96 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>CD4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CD4</t>
+          <t>FITC</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="E4">
+        <v>520</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>BD</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SK3</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>D:/Git_repos/CytoBright/inst/extdata/example_data/with_unstained/B laser_FITC.fcs</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>B530-A</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>FITC</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>488</t>
-        </is>
-      </c>
-      <c r="F4">
-        <v>520</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>BD</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SK3</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>D:/Git_repos/CytoBright/inst/extdata/example_data/with_unstained/B laser_FITC.fcs</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>B530-A</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>FITC</t>
         </is>
       </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>FITC</t>
-        </is>
+      <c r="O4">
+        <v>146.7804905700688</v>
       </c>
       <c r="P4">
-        <v>146.7804905700688</v>
+        <v>3613.982177734375</v>
       </c>
       <c r="Q4">
-        <v>3613.982177734375</v>
+        <v>52.99436187744141</v>
       </c>
       <c r="R4">
-        <v>52.99436187744141</v>
+        <v>15.55790328979492</v>
       </c>
       <c r="S4">
-        <v>15.55790328979492</v>
+        <v>115.8676116943358</v>
       </c>
       <c r="T4">
-        <v>115.8676116943358</v>
+        <v>30.48927307128903</v>
       </c>
       <c r="U4">
-        <v>30.48927307128903</v>
+        <v>58.39738795232584</v>
       </c>
       <c r="V4">
-        <v>58.39738795232584</v>
+        <v>388</v>
       </c>
       <c r="W4">
-        <v>388</v>
+        <v>2807</v>
       </c>
       <c r="X4">
-        <v>2807</v>
+        <v>6113</v>
       </c>
       <c r="Y4">
-        <v>6113</v>
-      </c>
-      <c r="Z4">
         <v>0</v>
       </c>
     </row>
@@ -815,101 +795,96 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>CD4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CD4</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>488/561</t>
+        </is>
+      </c>
+      <c r="E5">
+        <v>578</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>BD</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SK3</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>D:/Git_repos/CytoBright/inst/extdata/example_data/with_unstained/YG laser_PE.fcs</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>YG</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>YG586-A</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>PE</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>488/561</t>
-        </is>
-      </c>
-      <c r="F5">
-        <v>578</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>BD</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SK3</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>D:/Git_repos/CytoBright/inst/extdata/example_data/with_unstained/YG laser_PE.fcs</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>YG</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>YG586-A</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
       </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
+      <c r="O5">
+        <v>109.9648004913337</v>
       </c>
       <c r="P5">
-        <v>109.9648004913337</v>
+        <v>31989.42578125</v>
       </c>
       <c r="Q5">
-        <v>31989.42578125</v>
+        <v>8.531771659851074</v>
       </c>
       <c r="R5">
-        <v>8.531771659851074</v>
+        <v>-32.57808799743652</v>
       </c>
       <c r="S5">
-        <v>-32.57808799743652</v>
+        <v>75.37298660278313</v>
       </c>
       <c r="T5">
-        <v>75.37298660278313</v>
+        <v>32.81187677818226</v>
       </c>
       <c r="U5">
-        <v>32.81187677818226</v>
+        <v>487.3371649203459</v>
       </c>
       <c r="V5">
-        <v>487.3371649203459</v>
+        <v>527</v>
       </c>
       <c r="W5">
-        <v>527</v>
+        <v>3503</v>
       </c>
       <c r="X5">
-        <v>3503</v>
+        <v>5203</v>
       </c>
       <c r="Y5">
-        <v>5203</v>
-      </c>
-      <c r="Z5">
         <v>0</v>
       </c>
     </row>
@@ -921,101 +896,96 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C9</t>
+          <t>CD4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CD4</t>
+          <t>AF700</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="E6">
+        <v>719</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>BD</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SK3</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>D:/Git_repos/CytoBright/inst/extdata/example_data/with_unstained/R laser_AF700.fcs</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>R730-A</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>AF700</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>633</t>
-        </is>
-      </c>
-      <c r="F6">
-        <v>719</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>BD</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SK3</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>D:/Git_repos/CytoBright/inst/extdata/example_data/with_unstained/R laser_AF700.fcs</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>R730-A</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>AF700</t>
         </is>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>AF700</t>
-        </is>
+      <c r="O6">
+        <v>200.6153274536134</v>
       </c>
       <c r="P6">
-        <v>200.6153274536134</v>
+        <v>13668.62548828125</v>
       </c>
       <c r="Q6">
-        <v>13668.62548828125</v>
+        <v>28.62044525146484</v>
       </c>
       <c r="R6">
-        <v>28.62044525146484</v>
+        <v>-15.48024921417236</v>
       </c>
       <c r="S6">
-        <v>-15.48024921417236</v>
+        <v>143.9115882873535</v>
       </c>
       <c r="T6">
-        <v>143.9115882873535</v>
+        <v>48.44736702174038</v>
       </c>
       <c r="U6">
-        <v>48.44736702174038</v>
+        <v>140.7713760472157</v>
       </c>
       <c r="V6">
-        <v>140.7713760472157</v>
+        <v>522</v>
       </c>
       <c r="W6">
-        <v>522</v>
+        <v>3582</v>
       </c>
       <c r="X6">
-        <v>3582</v>
+        <v>5444</v>
       </c>
       <c r="Y6">
-        <v>5444</v>
-      </c>
-      <c r="Z6">
         <v>0</v>
       </c>
     </row>
